--- a/biology/Zoologie/Haemodracon/Haemodracon.xlsx
+++ b/biology/Zoologie/Haemodracon/Haemodracon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haemodracon est un genre de geckos de la famille des Phyllodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haemodracon est un genre de geckos de la famille des Phyllodactylidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques de l'île de Socotra.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos nocturnes et arboricoles.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 février 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 février 2013) :
 Haemodracon riebeckii (Peters, 1882)
 Haemodracon trachyrhinus (Boulenger, 1899)</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bauer, Good &amp; Branch, 1997 : The taxonomy of the southern African leaf-toed geckos (Squamata: Gekkonidae), with a review of Old World Phyllodactylus and the description of five new genera. Proceedings of the California Academy of Sciences, ser. 4, vol. 49, no 14, p. 447-497 (texte intégral).</t>
         </is>
